--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-17T22:43:52+00:00</t>
+    <t>2023-11-27T20:47:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -411,7 +411,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/research-study-party-role</t>
+    <t>https://hl7.org/fhir/valueset-research-study-party-role.html</t>
   </si>
   <si>
     <t>Extension.extension:period</t>
@@ -461,7 +461,7 @@
     <t>Extension.extension:classifier.value[x]</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/research-study-party-organization-type</t>
+    <t>https://hl7.org/fhir/valueset-research-study-party-organization-type.html</t>
   </si>
   <si>
     <t>Extension.extension:party</t>
@@ -844,7 +844,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.7265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T20:47:53+00:00</t>
+    <t>2023-11-27T21:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T21:08:00+00:00</t>
+    <t>2023-12-14T19:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T19:43:16+00:00</t>
+    <t>2024-01-03T18:03:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T18:03:54+00:00</t>
+    <t>2024-01-03T22:56:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T22:56:43+00:00</t>
+    <t>2024-03-11T22:11:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T22:11:27+00:00</t>
+    <t>2024-03-15T21:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ResearchStudy</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T21:50:53+00:00</t>
+    <t>2024-03-18T15:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:37:44+00:00</t>
+    <t>2024-03-18T15:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-research-study-associated-party.xlsx
+++ b/StructureDefinition-research-study-associated-party.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:48:54+00:00</t>
+    <t>2024-03-21T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>81</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>81</v>
